--- a/网站分析.xlsx
+++ b/网站分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ClassDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D675B9C5-344D-4065-BE42-76C2D4C4604B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E96F66E0-79A8-4A41-9953-2F60FA2E6D34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{135F098D-051E-4945-AF9B-2F6371435802}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>时光课堂model分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <t>轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,13 +530,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E2E7DF-5F0A-4F7F-9027-07118D4F374C}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -550,135 +561,145 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
-        <v>28</v>
+      <c r="B15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
